--- a/output/GAP_01823373000125.xlsx
+++ b/output/GAP_01823373000125.xlsx
@@ -2495,10 +2495,10 @@
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>4.468115805218237</v>
+        <v>4.45850917509993</v>
       </c>
       <c r="C192">
-        <v>0.01044185896194083</v>
+        <v>0.008666669565651874</v>
       </c>
     </row>
   </sheetData>

--- a/output/GAP_01823373000125.xlsx
+++ b/output/GAP_01823373000125.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>GAP ABSOLUTO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,2119 +383,1546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:B192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38383</v>
       </c>
       <c r="B2">
-        <v>-0.02524248463899592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38411</v>
       </c>
       <c r="B3">
-        <v>-0.01568076087165804</v>
-      </c>
-      <c r="C3">
         <v>0.009809335774956018</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38442</v>
       </c>
       <c r="B4">
-        <v>-0.01759613189120324</v>
-      </c>
-      <c r="C4">
         <v>-0.001945883960615569</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38472</v>
       </c>
       <c r="B5">
-        <v>-0.06902686001371838</v>
-      </c>
-      <c r="C5">
         <v>-0.05235191940105377</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38503</v>
       </c>
       <c r="B6">
-        <v>-0.1039168110162111</v>
-      </c>
-      <c r="C6">
         <v>-0.03747686104349568</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38533</v>
       </c>
       <c r="B7">
-        <v>-0.1321626522999303</v>
-      </c>
-      <c r="C7">
         <v>-0.03152144982850491</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>38564</v>
       </c>
       <c r="B8">
-        <v>-0.1237142086823091</v>
-      </c>
-      <c r="C8">
         <v>0.009735054201125637</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>38595</v>
       </c>
       <c r="B9">
-        <v>-0.1241976339272893</v>
-      </c>
-      <c r="C9">
         <v>-0.0005516753207344127</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>38625</v>
       </c>
       <c r="B10">
-        <v>-0.1650903343321041</v>
-      </c>
-      <c r="C10">
         <v>-0.04669169893681213</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>38656</v>
       </c>
       <c r="B11">
-        <v>-0.1557361521627441</v>
-      </c>
-      <c r="C11">
         <v>0.0112038254604192</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>38686</v>
       </c>
       <c r="B12">
-        <v>-0.1604846885710521</v>
-      </c>
-      <c r="C12">
         <v>-0.005624469673162436</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>38717</v>
       </c>
       <c r="B13">
-        <v>-0.1024953326074027</v>
-      </c>
-      <c r="C13">
         <v>0.06907480444275049</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>38748</v>
       </c>
       <c r="B14">
-        <v>-0.03001655697787908</v>
-      </c>
-      <c r="C14">
         <v>0.08075587600016254</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>38776</v>
       </c>
       <c r="B15">
-        <v>0.01399949818444313</v>
-      </c>
-      <c r="C15">
         <v>0.04537815101790188</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>38807</v>
       </c>
       <c r="B16">
-        <v>0.01774449521331434</v>
-      </c>
-      <c r="C16">
         <v>0.003693292783257363</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>38837</v>
       </c>
       <c r="B17">
-        <v>0.05295635633779017</v>
-      </c>
-      <c r="C17">
         <v>0.03459793817611923</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>38868</v>
       </c>
       <c r="B18">
-        <v>0.03420785824544836</v>
-      </c>
-      <c r="C18">
         <v>-0.01780557948056805</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>38898</v>
       </c>
       <c r="B19">
-        <v>0.05462905876693935</v>
-      </c>
-      <c r="C19">
         <v>0.01974574101200122</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>38929</v>
       </c>
       <c r="B20">
-        <v>0.08696714276507755</v>
-      </c>
-      <c r="C20">
         <v>0.03066299352300006</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>38960</v>
       </c>
       <c r="B21">
-        <v>0.1232316573271821</v>
-      </c>
-      <c r="C21">
         <v>0.03336302739552299</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>38990</v>
       </c>
       <c r="B22">
-        <v>0.1292478071786083</v>
-      </c>
-      <c r="C22">
         <v>0.005356107809267208</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39021</v>
       </c>
       <c r="B23">
-        <v>0.1577541231619997</v>
-      </c>
-      <c r="C23">
         <v>0.02524363191336509</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39051</v>
       </c>
       <c r="B24">
-        <v>0.1791107141387325</v>
-      </c>
-      <c r="C24">
         <v>0.01844656870528327</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39082</v>
       </c>
       <c r="B25">
-        <v>0.2063775887635031</v>
-      </c>
-      <c r="C25">
         <v>0.02312494857167624</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39113</v>
       </c>
       <c r="B26">
-        <v>0.2304719100804615</v>
-      </c>
-      <c r="C26">
         <v>0.01997245434711226</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39141</v>
       </c>
       <c r="B27">
-        <v>0.2402874626392775</v>
-      </c>
-      <c r="C27">
         <v>0.007977063497673909</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39172</v>
       </c>
       <c r="B28">
-        <v>0.2692517379448247</v>
-      </c>
-      <c r="C28">
         <v>0.02335287276379661</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39202</v>
       </c>
       <c r="B29">
-        <v>0.2918423338162293</v>
-      </c>
-      <c r="C29">
         <v>0.01779835724943202</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39233</v>
       </c>
       <c r="B30">
-        <v>0.3290459999396291</v>
-      </c>
-      <c r="C30">
         <v>0.02879892162497621</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39263</v>
       </c>
       <c r="B31">
-        <v>0.3552224024570423</v>
-      </c>
-      <c r="C31">
         <v>0.01969563319749823</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39294</v>
       </c>
       <c r="B32">
-        <v>0.3806068435019319</v>
-      </c>
-      <c r="C32">
         <v>0.01873083045178947</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39325</v>
       </c>
       <c r="B33">
-        <v>0.3275665382148365</v>
-      </c>
-      <c r="C33">
         <v>-0.03841810978754656</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39355</v>
       </c>
       <c r="B34">
-        <v>0.35947000926864</v>
-      </c>
-      <c r="C34">
         <v>0.02403154202478142</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39386</v>
       </c>
       <c r="B35">
-        <v>0.3854922112659718</v>
-      </c>
-      <c r="C35">
         <v>0.01914143145484393</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39416</v>
       </c>
       <c r="B36">
-        <v>0.3836203464423829</v>
-      </c>
-      <c r="C36">
         <v>-0.001351046803704903</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39447</v>
       </c>
       <c r="B37">
-        <v>0.3894646852033414</v>
-      </c>
-      <c r="C37">
         <v>0.004223946818927349</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39478</v>
       </c>
       <c r="B38">
-        <v>0.3940450098851911</v>
-      </c>
-      <c r="C38">
         <v>0.003296467143516724</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39507</v>
       </c>
       <c r="B39">
-        <v>0.4136544512250788</v>
-      </c>
-      <c r="C39">
         <v>0.0140665769045023</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39538</v>
       </c>
       <c r="B40">
-        <v>0.3990478144439644</v>
-      </c>
-      <c r="C40">
         <v>-0.01033253689998725</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>39568</v>
       </c>
       <c r="B41">
-        <v>0.4331843782445575</v>
-      </c>
-      <c r="C41">
         <v>0.02439985499291897</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>39599</v>
       </c>
       <c r="B42">
-        <v>0.4542859044309038</v>
-      </c>
-      <c r="C42">
         <v>0.0147235251141884</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>39629</v>
       </c>
       <c r="B43">
-        <v>0.4707006024200744</v>
-      </c>
-      <c r="C43">
         <v>0.01128711894900336</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>39660</v>
       </c>
       <c r="B44">
-        <v>0.4679441389713914</v>
-      </c>
-      <c r="C44">
         <v>-0.001874251934178228</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>39691</v>
       </c>
       <c r="B45">
-        <v>0.4437144154224391</v>
-      </c>
-      <c r="C45">
         <v>-0.01650588936301789</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>39721</v>
       </c>
       <c r="B46">
-        <v>0.4169117549502386</v>
-      </c>
-      <c r="C46">
         <v>-0.01856507089344117</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>39752</v>
       </c>
       <c r="B47">
-        <v>0.4209105880127688</v>
-      </c>
-      <c r="C47">
         <v>0.002822217437719488</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>39782</v>
       </c>
       <c r="B48">
-        <v>0.4411061607960034</v>
-      </c>
-      <c r="C48">
         <v>0.01421312006090347</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>39813</v>
       </c>
       <c r="B49">
-        <v>0.477016052304075</v>
-      </c>
-      <c r="C49">
         <v>0.02491828325002543</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>39844</v>
       </c>
       <c r="B50">
-        <v>0.5400257292485295</v>
-      </c>
-      <c r="C50">
         <v>0.04266011655469981</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>39872</v>
       </c>
       <c r="B51">
-        <v>0.5609535010258115</v>
-      </c>
-      <c r="C51">
         <v>0.01358923515355426</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>39903</v>
       </c>
       <c r="B52">
-        <v>0.5930707805783091</v>
-      </c>
-      <c r="C52">
         <v>0.02057542363138376</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>39933</v>
       </c>
       <c r="B53">
-        <v>0.5989078168066537</v>
-      </c>
-      <c r="C53">
         <v>0.003664015622850014</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>39964</v>
       </c>
       <c r="B54">
-        <v>0.6659842246755556</v>
-      </c>
-      <c r="C54">
         <v>0.04195139154605365</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>39994</v>
       </c>
       <c r="B55">
-        <v>0.6932017897032448</v>
-      </c>
-      <c r="C55">
         <v>0.01633722854307917</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40025</v>
       </c>
       <c r="B56">
-        <v>0.7148323934301946</v>
-      </c>
-      <c r="C56">
         <v>0.01277497098012215</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40056</v>
       </c>
       <c r="B57">
-        <v>0.715431201104535</v>
-      </c>
-      <c r="C57">
         <v>0.0003491931203507548</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40086</v>
       </c>
       <c r="B58">
-        <v>0.7756278942049053</v>
-      </c>
-      <c r="C58">
         <v>0.03509128961954922</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40117</v>
       </c>
       <c r="B59">
-        <v>0.8021036522782812</v>
-      </c>
-      <c r="C59">
         <v>0.01491064550167542</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40147</v>
       </c>
       <c r="B60">
-        <v>0.8155279909237509</v>
-      </c>
-      <c r="C60">
         <v>0.007449259995948809</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40178</v>
       </c>
       <c r="B61">
-        <v>0.8351102620141944</v>
-      </c>
-      <c r="C61">
         <v>0.01078599238807643</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40209</v>
       </c>
       <c r="B62">
-        <v>0.8215675040514212</v>
-      </c>
-      <c r="C62">
         <v>-0.007379806131054378</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40237</v>
       </c>
       <c r="B63">
-        <v>0.8398889114115358</v>
-      </c>
-      <c r="C63">
         <v>0.01005804468918403</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40268</v>
       </c>
       <c r="B64">
-        <v>0.8427121308715815</v>
-      </c>
-      <c r="C64">
         <v>0.00153445104350336</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40298</v>
       </c>
       <c r="B65">
-        <v>0.8520288178553022</v>
-      </c>
-      <c r="C65">
         <v>0.005055964427451931</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40329</v>
       </c>
       <c r="B66">
-        <v>0.8325098579120762</v>
-      </c>
-      <c r="C66">
         <v>-0.01053923122310241</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40359</v>
       </c>
       <c r="B67">
-        <v>0.8459296629521746</v>
-      </c>
-      <c r="C67">
         <v>0.007323183000711664</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40390</v>
       </c>
       <c r="B68">
-        <v>0.8565218621845383</v>
-      </c>
-      <c r="C68">
         <v>0.005738138047699959</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40421</v>
       </c>
       <c r="B69">
-        <v>0.8818510309032366</v>
-      </c>
-      <c r="C69">
         <v>0.01364334524393573</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40451</v>
       </c>
       <c r="B70">
-        <v>0.9022943080067953</v>
-      </c>
-      <c r="C70">
         <v>0.01086338757311012</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40482</v>
       </c>
       <c r="B71">
-        <v>0.9349410006542878</v>
-      </c>
-      <c r="C71">
         <v>0.01716174648164692</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40512</v>
       </c>
       <c r="B72">
-        <v>0.9401590524917345</v>
-      </c>
-      <c r="C72">
         <v>0.002696749841820667</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40543</v>
       </c>
       <c r="B73">
-        <v>0.9717810827315676</v>
-      </c>
-      <c r="C73">
         <v>0.01629867932694551</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>40574</v>
       </c>
       <c r="B74">
-        <v>0.9798407853799715</v>
-      </c>
-      <c r="C74">
         <v>0.004087524076069604</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>40602</v>
       </c>
       <c r="B75">
-        <v>1.001945665063106</v>
-      </c>
-      <c r="C75">
         <v>0.01116497843986575</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>40633</v>
       </c>
       <c r="B76">
-        <v>1.0350507467355</v>
-      </c>
-      <c r="C76">
         <v>0.0165364536361432</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>40663</v>
       </c>
       <c r="B77">
-        <v>1.054601994736151</v>
-      </c>
-      <c r="C77">
         <v>0.009607253299218188</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>40694</v>
       </c>
       <c r="B78">
-        <v>1.077054076651747</v>
-      </c>
-      <c r="C78">
         <v>0.01092770374657359</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>40724</v>
       </c>
       <c r="B79">
-        <v>1.097350342307001</v>
-      </c>
-      <c r="C79">
         <v>0.009771659719120862</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>40755</v>
       </c>
       <c r="B80">
-        <v>1.111367772131859</v>
-      </c>
-      <c r="C80">
         <v>0.006683399307261251</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>40786</v>
       </c>
       <c r="B81">
-        <v>1.167318454114535</v>
-      </c>
-      <c r="C81">
         <v>0.02649973288461349</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>40816</v>
       </c>
       <c r="B82">
-        <v>1.179298482168234</v>
-      </c>
-      <c r="C82">
         <v>0.005527580882705996</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>40847</v>
       </c>
       <c r="B83">
-        <v>1.205607865615092</v>
-      </c>
-      <c r="C83">
         <v>0.01207240938408827</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>40877</v>
       </c>
       <c r="B84">
-        <v>1.228893778466238</v>
-      </c>
-      <c r="C84">
         <v>0.01055759421888558</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>40908</v>
       </c>
       <c r="B85">
-        <v>1.202924166774028</v>
-      </c>
-      <c r="C85">
         <v>-0.01165134558816017</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>40939</v>
       </c>
       <c r="B86">
-        <v>1.23785678870759</v>
-      </c>
-      <c r="C86">
         <v>0.01585738740372422</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>40968</v>
       </c>
       <c r="B87">
-        <v>1.271069291238249</v>
-      </c>
-      <c r="C87">
         <v>0.01484120999085037</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>40999</v>
       </c>
       <c r="B88">
-        <v>1.284053896717344</v>
-      </c>
-      <c r="C88">
         <v>0.005717397319927153</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41029</v>
       </c>
       <c r="B89">
-        <v>1.32765610951074</v>
-      </c>
-      <c r="C89">
         <v>0.01908983533885156</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41060</v>
       </c>
       <c r="B90">
-        <v>1.365999402838715</v>
-      </c>
-      <c r="C90">
         <v>0.01647292019268032</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41090</v>
       </c>
       <c r="B91">
-        <v>1.400652920768743</v>
-      </c>
-      <c r="C91">
         <v>0.01464646097900557</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41121</v>
       </c>
       <c r="B92">
-        <v>1.431575083525041</v>
-      </c>
-      <c r="C92">
         <v>0.01288073027499381</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41152</v>
       </c>
       <c r="B93">
-        <v>1.465248415695634</v>
-      </c>
-      <c r="C93">
         <v>0.01384836207557161</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41182</v>
       </c>
       <c r="B94">
-        <v>1.506722986727245</v>
-      </c>
-      <c r="C94">
         <v>0.01682368834213732</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41213</v>
       </c>
       <c r="B95">
-        <v>1.559961855721809</v>
-      </c>
-      <c r="C95">
         <v>0.02123843331570985</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41243</v>
       </c>
       <c r="B96">
-        <v>1.581133058932563</v>
-      </c>
-      <c r="C96">
         <v>0.008270124479954344</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41274</v>
       </c>
       <c r="B97">
-        <v>1.638064465010136</v>
-      </c>
-      <c r="C97">
         <v>0.02205674979852335</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41305</v>
       </c>
       <c r="B98">
-        <v>1.695707007405043</v>
-      </c>
-      <c r="C98">
         <v>0.02185031607811205</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41333</v>
       </c>
       <c r="B99">
-        <v>1.721055080630486</v>
-      </c>
-      <c r="C99">
         <v>0.009403126213572754</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41364</v>
       </c>
       <c r="B100">
-        <v>1.695074332877797</v>
-      </c>
-      <c r="C100">
         <v>-0.009548041837752264</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41394</v>
       </c>
       <c r="B101">
-        <v>1.754514288060477</v>
-      </c>
-      <c r="C101">
         <v>0.02205503368035466</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41425</v>
       </c>
       <c r="B102">
-        <v>1.733586410064538</v>
-      </c>
-      <c r="C102">
         <v>-0.007597665434755929</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41455</v>
       </c>
       <c r="B103">
-        <v>1.728278248595727</v>
-      </c>
-      <c r="C103">
         <v>-0.001941830501230091</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41486</v>
       </c>
       <c r="B104">
-        <v>1.732698721442173</v>
-      </c>
-      <c r="C104">
         <v>0.001620242674559291</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41517</v>
       </c>
       <c r="B105">
-        <v>1.745686054809483</v>
-      </c>
-      <c r="C105">
         <v>0.004752566854664408</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>41547</v>
       </c>
       <c r="B106">
-        <v>1.758468224428279</v>
-      </c>
-      <c r="C106">
         <v>0.004655364584164934</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>41578</v>
       </c>
       <c r="B107">
-        <v>1.794121086100823</v>
-      </c>
-      <c r="C107">
         <v>0.01292487669671605</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>41608</v>
       </c>
       <c r="B108">
-        <v>1.819383114972561</v>
-      </c>
-      <c r="C108">
         <v>0.009041136047181819</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>41639</v>
       </c>
       <c r="B109">
-        <v>1.845249564208994</v>
-      </c>
-      <c r="C109">
         <v>0.009174506685192041</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>41670</v>
       </c>
       <c r="B110">
-        <v>1.866855447957774</v>
-      </c>
-      <c r="C110">
         <v>0.007593669118014956</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>41698</v>
       </c>
       <c r="B111">
-        <v>1.888128155164831</v>
-      </c>
-      <c r="C111">
         <v>0.0074202231654934</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>41729</v>
       </c>
       <c r="B112">
-        <v>1.849956158732465</v>
-      </c>
-      <c r="C112">
         <v>-0.01321686378913056</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>41759</v>
       </c>
       <c r="B113">
-        <v>1.845583592914026</v>
-      </c>
-      <c r="C113">
         <v>-0.001534257221831647</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>41790</v>
       </c>
       <c r="B114">
-        <v>1.895107283353387</v>
-      </c>
-      <c r="C114">
         <v>0.01740370255250401</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>41820</v>
       </c>
       <c r="B115">
-        <v>1.932347831491093</v>
-      </c>
-      <c r="C115">
         <v>0.01286327050877722</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>41851</v>
       </c>
       <c r="B116">
-        <v>1.959248785259307</v>
-      </c>
-      <c r="C116">
         <v>0.009173861804291583</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>41882</v>
       </c>
       <c r="B117">
-        <v>2.0037942245479</v>
-      </c>
-      <c r="C117">
         <v>0.01505295516567728</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>41912</v>
       </c>
       <c r="B118">
-        <v>1.904717874944759</v>
-      </c>
-      <c r="C118">
         <v>-0.03298373397001031</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>41943</v>
       </c>
       <c r="B119">
-        <v>1.911500469650617</v>
-      </c>
-      <c r="C119">
         <v>0.002335027013935731</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>41973</v>
       </c>
       <c r="B120">
-        <v>1.988288304412472</v>
-      </c>
-      <c r="C120">
         <v>0.02637397299512356</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42004</v>
       </c>
       <c r="B121">
-        <v>1.974759992186942</v>
-      </c>
-      <c r="C121">
         <v>-0.004527110789663169</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42035</v>
       </c>
       <c r="B122">
-        <v>1.9852075312658</v>
-      </c>
-      <c r="C122">
         <v>0.00351206117680003</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42063</v>
       </c>
       <c r="B123">
-        <v>2.003231987474078</v>
-      </c>
-      <c r="C123">
         <v>0.00603792400343961</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42094</v>
       </c>
       <c r="B124">
-        <v>2.040695396836859</v>
-      </c>
-      <c r="C124">
         <v>0.01247436412472758</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42124</v>
       </c>
       <c r="B125">
-        <v>1.977640642143148</v>
-      </c>
-      <c r="C125">
         <v>-0.02073695206672288</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42155</v>
       </c>
       <c r="B126">
-        <v>2.04491418218172</v>
-      </c>
-      <c r="C126">
         <v>0.02259290093184374</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42185</v>
       </c>
       <c r="B127">
-        <v>2.02389136401962</v>
-      </c>
-      <c r="C127">
         <v>-0.006904239956948999</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42216</v>
       </c>
       <c r="B128">
-        <v>2.071024444273164</v>
-      </c>
-      <c r="C128">
         <v>0.0155868960156329</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42247</v>
       </c>
       <c r="B129">
-        <v>2.052776535395021</v>
-      </c>
-      <c r="C129">
         <v>-0.005941961455947387</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42277</v>
       </c>
       <c r="B130">
-        <v>2.065083584136503</v>
-      </c>
-      <c r="C130">
         <v>0.00403142798000089</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42308</v>
       </c>
       <c r="B131">
-        <v>2.085324500215634</v>
-      </c>
-      <c r="C131">
         <v>0.006603707704380124</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42338</v>
       </c>
       <c r="B132">
-        <v>2.110105974160168</v>
-      </c>
-      <c r="C132">
         <v>0.008032047826023625</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42369</v>
       </c>
       <c r="B133">
-        <v>2.133612254512029</v>
-      </c>
-      <c r="C133">
         <v>0.007558031960054779</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42400</v>
       </c>
       <c r="B134">
-        <v>2.204834253415427</v>
-      </c>
-      <c r="C134">
         <v>0.02272840195874504</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42429</v>
       </c>
       <c r="B135">
-        <v>2.219234362503919</v>
-      </c>
-      <c r="C135">
         <v>0.004493246124396277</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42460</v>
       </c>
       <c r="B136">
-        <v>2.241148695574068</v>
-      </c>
-      <c r="C136">
         <v>0.006807312112903752</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42490</v>
       </c>
       <c r="B137">
-        <v>2.331256313612784</v>
-      </c>
-      <c r="C137">
         <v>0.02780113672716178</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42521</v>
       </c>
       <c r="B138">
-        <v>2.406384892261741</v>
-      </c>
-      <c r="C138">
         <v>0.02255262626954058</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>42551</v>
       </c>
       <c r="B139">
-        <v>2.482139444006362</v>
-      </c>
-      <c r="C139">
         <v>0.02223898770708876</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>42582</v>
       </c>
       <c r="B140">
-        <v>2.517342409318381</v>
-      </c>
-      <c r="C140">
         <v>0.01010957943473856</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>42613</v>
       </c>
       <c r="B141">
-        <v>2.555593393805996</v>
-      </c>
-      <c r="C141">
         <v>0.01087496752840389</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>42643</v>
       </c>
       <c r="B142">
-        <v>2.620147236535293</v>
-      </c>
-      <c r="C142">
         <v>0.01815557505584087</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>42674</v>
       </c>
       <c r="B143">
-        <v>2.632600656999082</v>
-      </c>
-      <c r="C143">
         <v>0.003440031482174533</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>42704</v>
       </c>
       <c r="B144">
-        <v>2.574895795635769</v>
-      </c>
-      <c r="C144">
         <v>-0.01588527526474204</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>42735</v>
       </c>
       <c r="B145">
-        <v>2.638479034011233</v>
-      </c>
-      <c r="C145">
         <v>0.01778603965270453</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>42766</v>
       </c>
       <c r="B146">
-        <v>2.741383040484314</v>
-      </c>
-      <c r="C146">
         <v>0.02828214908239679</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>42794</v>
       </c>
       <c r="B147">
-        <v>2.82599048269253</v>
-      </c>
-      <c r="C147">
         <v>0.02261394818245166</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>42825</v>
       </c>
       <c r="B148">
-        <v>2.89107228283842</v>
-      </c>
-      <c r="C148">
         <v>0.01701044486134995</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>42855</v>
       </c>
       <c r="B149">
-        <v>2.934613448873225</v>
-      </c>
-      <c r="C149">
         <v>0.01119001726769331</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>42886</v>
       </c>
       <c r="B150">
-        <v>2.837235385911015</v>
-      </c>
-      <c r="C150">
         <v>-0.0247490799865222</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>42916</v>
       </c>
       <c r="B151">
-        <v>2.86989933909014</v>
-      </c>
-      <c r="C151">
         <v>0.008512366298678353</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>42947</v>
       </c>
       <c r="B152">
-        <v>2.869998576283757</v>
-      </c>
-      <c r="C152">
         <v>2.564335268750995e-05</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>42978</v>
       </c>
       <c r="B153">
-        <v>2.922257059151876</v>
-      </c>
-      <c r="C153">
         <v>0.01350348891298569</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43008</v>
       </c>
       <c r="B154">
-        <v>3.013146642039131</v>
-      </c>
-      <c r="C154">
         <v>0.02317277565354381</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43039</v>
       </c>
       <c r="B155">
-        <v>3.043638385073954</v>
-      </c>
-      <c r="C155">
         <v>0.00759796383102751</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43069</v>
       </c>
       <c r="B156">
-        <v>3.06887228290022</v>
-      </c>
-      <c r="C156">
         <v>0.006240394274475758</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43100</v>
       </c>
       <c r="B157">
-        <v>3.094825800051955</v>
-      </c>
-      <c r="C157">
         <v>0.006378552912758462</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43131</v>
       </c>
       <c r="B158">
-        <v>3.173631074719784</v>
-      </c>
-      <c r="C158">
         <v>0.01924508599775598</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43159</v>
       </c>
       <c r="B159">
-        <v>3.216860534865781</v>
-      </c>
-      <c r="C159">
         <v>0.01035775787846793</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43190</v>
       </c>
       <c r="B160">
-        <v>3.229959813040487</v>
-      </c>
-      <c r="C160">
         <v>0.003106405361618769</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43220</v>
       </c>
       <c r="B161">
-        <v>3.277789699749021</v>
-      </c>
-      <c r="C161">
         <v>0.01130740924797413</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43251</v>
       </c>
       <c r="B162">
-        <v>3.245413591886022</v>
-      </c>
-      <c r="C162">
         <v>-0.00756841970630262</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43281</v>
       </c>
       <c r="B163">
-        <v>3.294506990549108</v>
-      </c>
-      <c r="C163">
         <v>0.01156386712402169</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43312</v>
       </c>
       <c r="B164">
-        <v>3.405215644536447</v>
-      </c>
-      <c r="C164">
         <v>0.02577912999815246</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43343</v>
       </c>
       <c r="B165">
-        <v>3.401261109481674</v>
-      </c>
-      <c r="C165">
         <v>-0.0008976938642442089</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43373</v>
       </c>
       <c r="B166">
-        <v>3.469537259486441</v>
-      </c>
-      <c r="C166">
         <v>0.01551286058845247</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43404</v>
       </c>
       <c r="B167">
-        <v>3.555954496198058</v>
-      </c>
-      <c r="C167">
         <v>0.01933471670432962</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43434</v>
       </c>
       <c r="B168">
-        <v>3.416588435017001</v>
-      </c>
-      <c r="C168">
         <v>-0.03058987118887102</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43465</v>
       </c>
       <c r="B169">
-        <v>3.390899059522638</v>
-      </c>
-      <c r="C169">
         <v>-0.005816565403895191</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43496</v>
       </c>
       <c r="B170">
-        <v>3.538115333607403</v>
-      </c>
-      <c r="C170">
         <v>0.03352759243360293</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43524</v>
       </c>
       <c r="B171">
-        <v>3.48310745807342</v>
-      </c>
-      <c r="C171">
         <v>-0.0121213039974144</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>43555</v>
       </c>
       <c r="B172">
-        <v>3.535324694306087</v>
-      </c>
-      <c r="C172">
         <v>0.01164755400601236</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>43585</v>
       </c>
       <c r="B173">
-        <v>3.51337235668356</v>
-      </c>
-      <c r="C173">
         <v>-0.004840301213733911</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>43616</v>
       </c>
       <c r="B174">
-        <v>3.594502294236069</v>
-      </c>
-      <c r="C174">
         <v>0.01797545851327076</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>43646</v>
       </c>
       <c r="B175">
-        <v>3.773874183151979</v>
-      </c>
-      <c r="C175">
         <v>0.03904054833990123</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>43677</v>
       </c>
       <c r="B176">
-        <v>3.82371163625958</v>
-      </c>
-      <c r="C176">
         <v>0.01043962433771051</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>43708</v>
       </c>
       <c r="B177">
-        <v>3.845186518608418</v>
-      </c>
-      <c r="C177">
         <v>0.004451941568689888</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:2">
       <c r="A178" s="2">
         <v>43738</v>
       </c>
       <c r="B178">
-        <v>3.962015798151799</v>
-      </c>
-      <c r="C178">
         <v>0.02411244213090402</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:2">
       <c r="A179" s="2">
         <v>43769</v>
       </c>
       <c r="B179">
-        <v>4.019872040412684</v>
-      </c>
-      <c r="C179">
         <v>0.01165982629124951</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:2">
       <c r="A180" s="2">
         <v>43799</v>
       </c>
       <c r="B180">
-        <v>3.933305865832589</v>
-      </c>
-      <c r="C180">
         <v>-0.01724469745108848</v>
       </c>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:2">
       <c r="A181" s="2">
         <v>43830</v>
       </c>
       <c r="B181">
-        <v>4.02767279887569</v>
-      </c>
-      <c r="C181">
         <v>0.01912853887626809</v>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:2">
       <c r="A182" s="2">
         <v>43861</v>
       </c>
       <c r="B182">
-        <v>3.988063140173806</v>
-      </c>
-      <c r="C182">
         <v>-0.007878328659482681</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:2">
       <c r="A183" s="2">
         <v>43890</v>
       </c>
       <c r="B183">
-        <v>3.868638919546919</v>
-      </c>
-      <c r="C183">
         <v>-0.0239420025911552</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:2">
       <c r="A184" s="2">
         <v>43921</v>
       </c>
       <c r="B184">
-        <v>3.900510187035411</v>
-      </c>
-      <c r="C184">
         <v>0.006546237668300536</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
+    <row r="185" spans="1:2">
       <c r="A185" s="2">
         <v>43951</v>
       </c>
       <c r="B185">
-        <v>4.109694528953187</v>
-      </c>
-      <c r="C185">
         <v>0.04268623754138612</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
+    <row r="186" spans="1:2">
       <c r="A186" s="2">
         <v>43982</v>
       </c>
       <c r="B186">
-        <v>4.37609803053037</v>
-      </c>
-      <c r="C186">
         <v>0.05213687434104997</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
+    <row r="187" spans="1:2">
       <c r="A187" s="2">
         <v>44012</v>
       </c>
       <c r="B187">
-        <v>4.442701043575123</v>
-      </c>
-      <c r="C187">
         <v>0.01238872741280383</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
+    <row r="188" spans="1:2">
       <c r="A188" s="2">
         <v>44043</v>
       </c>
       <c r="B188">
-        <v>4.523309705830136</v>
-      </c>
-      <c r="C188">
         <v>0.01481041519819803</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
+    <row r="189" spans="1:2">
       <c r="A189" s="2">
         <v>44074</v>
       </c>
       <c r="B189">
-        <v>4.464428890481826</v>
-      </c>
-      <c r="C189">
         <v>-0.01066042255174615</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
+    <row r="190" spans="1:2">
       <c r="A190" s="2">
         <v>44104</v>
       </c>
       <c r="B190">
-        <v>4.455278821944721</v>
-      </c>
-      <c r="C190">
         <v>-0.001674478471673901</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
+    <row r="191" spans="1:2">
       <c r="A191" s="2">
         <v>44135</v>
       </c>
       <c r="B191">
-        <v>4.411608551961423</v>
-      </c>
-      <c r="C191">
         <v>-0.008005139867027</v>
       </c>
     </row>
-    <row r="192" spans="1:3">
+    <row r="192" spans="1:2">
       <c r="A192" s="2">
         <v>44165</v>
       </c>
       <c r="B192">
-        <v>4.45850917509993</v>
-      </c>
-      <c r="C192">
-        <v>0.008666669565651874</v>
+        <v>0.007108379019890476</v>
       </c>
     </row>
   </sheetData>
